--- a/WebApplication3/wwwroot/Formatos/ComescuamaEvaluacionAlistEntrenamiento.xlsx
+++ b/WebApplication3/wwwroot/Formatos/ComescuamaEvaluacionAlistEntrenamiento.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CLEINER\Desktop\Marina\siesmar\WebApplication3\wwwroot\Formatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815E4DE3-93E8-4566-AC8E-96DD67E6CB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27ADA8D3-144E-4B9C-AE04-A9BEE9CD6CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{A4CF1290-A882-4F5C-8C80-547778D1F8B0}"/>
+    <workbookView xWindow="5115" yWindow="1680" windowWidth="22320" windowHeight="10275" xr2:uid="{A4CF1290-A882-4F5C-8C80-547778D1F8B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,22 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t xml:space="preserve">Identificación Unidad Naval De Entrenamiento </t>
-  </si>
-  <si>
-    <t>Nivel De Entrenamiento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capacidad Operativa </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Código De Ejercicio </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calificativo </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">Puntaje Obtenido Por Ejercicio </t>
   </si>
@@ -57,9 +42,6 @@
     <t xml:space="preserve">Fecha Del Periodo A Evaluar El Ejercicio </t>
   </si>
   <si>
-    <t xml:space="preserve">Fecha De Realización Del Ejercicio </t>
-  </si>
-  <si>
     <t>Tiempo De Vigencia(Días)</t>
   </si>
   <si>
@@ -72,20 +54,46 @@
     <t>Tipo De Capacidad Operativa</t>
   </si>
   <si>
-    <t>A4-011-MAN</t>
-  </si>
-  <si>
     <t>Código De Ejercicio Aspectos</t>
   </si>
   <si>
-    <t>B1-011</t>
+    <t>Código Unidad Comescuama</t>
+  </si>
+  <si>
+    <t>Código Capacidad Operativa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Código de Calificativo </t>
+  </si>
+  <si>
+    <t>Nivel De 
+Entrenamiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha De Realización 
+Del Ejercicio </t>
+  </si>
+  <si>
+    <t>12/07/2023</t>
+  </si>
+  <si>
+    <t>12/08/2023</t>
+  </si>
+  <si>
+    <t>12/09/2023</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,14 +110,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -149,21 +149,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,66 +474,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5625D1FE-72FD-4A37-8409-82D7D3AA1D02}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A3" sqref="A3:K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="5" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="C2" s="2">
         <v>4</v>
@@ -546,32 +543,26 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="3">
+        <v>60</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2">
-        <v>2</v>
-      </c>
-      <c r="H2" s="2">
-        <v>6</v>
-      </c>
-      <c r="I2" s="3">
-        <v>2023</v>
-      </c>
-      <c r="J2" s="3">
-        <v>2023</v>
-      </c>
-      <c r="K2" s="4">
-        <v>60</v>
-      </c>
-      <c r="L2" s="3">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D6" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
